--- a/vedois/alunos (importar)/SIN_1.xlsx
+++ b/vedois/alunos (importar)/SIN_1.xlsx
@@ -431,7 +431,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SIN 2022 1</t>
+          <t>SIN 1</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -475,7 +475,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Segunda N 21:00 - 21:50</t>
+          <t>Terça N 19:00 - 19:50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -487,7 +487,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Segunda N 21:50 - 22:40</t>
+          <t>Terça N 19:50 - 20:40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -499,31 +499,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Segunda M 07:00 - 07:55</t>
+          <t>Terça N 21:00 - 21:50</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAHC04 Projeto Integrado 2 Prof 6</t>
+          <t>SAHC05 Fundamentos de Sistemas de Informação 4 Prof 10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Segunda M 07:55 - 08:50</t>
+          <t>Terça N 21:50 - 22:40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAHC04 Projeto Integrado 2 Prof 6</t>
+          <t>SAHC05 Fundamentos de Sistemas de Informação 4 Prof 10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Segunda T 13:30 - 14:25</t>
+          <t>Quarta N 19:00 - 19:50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -535,7 +535,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Segunda T 14:25 - 15:20</t>
+          <t>Quarta N 19:50 - 20:40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -547,24 +547,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Segunda T 15:45 - 16:40</t>
+          <t>Quinta N 21:00 - 21:50</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAHC05 Fundamentos de Sistemas de Informação 4 Prof 10</t>
+          <t>SAHC04 Projeto Integrado 2 Prof 6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Segunda T 16:40 - 17:35</t>
+          <t>Quinta N 21:50 - 22:40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAHC05 Fundamentos de Sistemas de Informação 4 Prof 10</t>
+          <t>SAHC04 Projeto Integrado 2 Prof 6</t>
         </is>
       </c>
     </row>
